--- a/report_templates/compliance_report_template.xlsx
+++ b/report_templates/compliance_report_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="147">
   <si>
     <t>№ п\п</t>
   </si>
@@ -1078,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:G51"/>
+    <sheetView tabSelected="1" topLeftCell="D61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1640,9 +1640,7 @@
         <v>87</v>
       </c>
       <c r="F33" s="4"/>
-      <c r="G33" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
